--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_61_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_61_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.471228851132901, 4.962027916462885]</t>
+          <t>[4.471491647686708, 4.961765119909078]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.10637474989835383, 0.23189944044174737]</t>
+          <t>[-0.10638056753868153, 0.23190525808207507]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.4587213547272069</v>
+        <v>0.4587367129476052</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4587213547272069</v>
+        <v>0.4587367129476052</v>
       </c>
       <c r="W2" t="n">
         <v>6.495975975976219</v>
